--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_GameObjectDeal.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_GameObjectDeal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F569E6-5E22-4F66-AF43-8C31E87D85AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DB940A-676D-4968-9267-5BDA440E3A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,6 +362,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,9 +376,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -657,22 +657,22 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="23.75" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -687,10 +687,10 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="12"/>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
@@ -709,7 +709,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -742,7 +742,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -757,10 +757,10 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="10"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -779,7 +779,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -845,7 +845,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -865,7 +865,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -885,7 +885,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -905,7 +905,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
@@ -925,7 +925,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
@@ -936,7 +936,7 @@
         <f t="shared" si="0"/>
         <v>GameObjectDeal_NotTransparent</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="6"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_GameObjectDeal.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_GameObjectDeal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DB940A-676D-4968-9267-5BDA440E3A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA0DCE9-D117-4BD8-BC52-B4151A14648A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -201,6 +201,22 @@
   </si>
   <si>
     <t>list,GameObjectDeal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlickerWhenBeHit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>被打时闪烁</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;1;0.6,0.6,0.6,1;0,0,0,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;5;0.1,0.1,0.1,1;0,0,0,1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -332,15 +348,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -351,7 +358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -360,9 +367,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -654,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -687,10 +691,10 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="11"/>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
@@ -757,10 +761,10 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="9"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -903,7 +907,9 @@
       <c r="G8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
@@ -936,7 +942,7 @@
         <f t="shared" si="0"/>
         <v>GameObjectDeal_NotTransparent</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="6"/>
@@ -944,6 +950,28 @@
         <v>21</v>
       </c>
       <c r="H10" s="6"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ref="D12" si="1">B12&amp;"_"&amp;C12</f>
+        <v>GameObjectDeal_FlickerWhenBeHit</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -952,6 +980,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_GameObjectDeal.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_GameObjectDeal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA0DCE9-D117-4BD8-BC52-B4151A14648A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2BF542-96B1-4ED5-8874-22571970E6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -217,6 +217,30 @@
   </si>
   <si>
     <t>0.2;5;0.1,0.1,0.1,1;0,0,0,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fly</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotFly</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不飞行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObjectFly</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObjectNotFly</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -658,25 +682,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="23.75" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -713,7 +737,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -746,7 +770,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -783,7 +807,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -814,7 +838,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -849,7 +873,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -869,7 +893,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -889,7 +913,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -911,7 +935,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
@@ -931,7 +955,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
@@ -951,25 +975,65 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:D12" si="1">B11&amp;"_"&amp;C11</f>
+        <v>GameObjectDeal_Fly</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" ref="D12" si="1">B12&amp;"_"&amp;C12</f>
-        <v>GameObjectDeal_FlickerWhenBeHit</v>
+        <f t="shared" si="1"/>
+        <v>GameObjectDeal_NotFly</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ref="D14" si="2">B14&amp;"_"&amp;C14</f>
+        <v>GameObjectDeal_FlickerWhenBeHit</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>36</v>
       </c>
     </row>
